--- a/Parcial 1/Ejercicios/01 ejercicios basicos soluciones.xlsx
+++ b/Parcial 1/Ejercicios/01 ejercicios basicos soluciones.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 1\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inversión" sheetId="4" r:id="rId1"/>
-    <sheet name="Funciones 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sumas maximos promedios" sheetId="1" r:id="rId2"/>
     <sheet name="Funciones 2" sheetId="2" r:id="rId3"/>
     <sheet name="Calificaciones ponderada" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -771,7 +771,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Millares_BásicoA" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2271,11 +2271,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.59765625" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.3984375" style="45" bestFit="1" customWidth="1"/>
@@ -2790,10 +2790,10 @@
   <dimension ref="A7:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="6.86328125" style="1" customWidth="1"/>
@@ -3889,10 +3889,10 @@
   <dimension ref="A11:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.73046875" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.265625" style="20" bestFit="1" customWidth="1"/>
@@ -4089,11 +4089,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="45"/>
@@ -4475,21 +4475,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -4603,17 +4588,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C4F0D79-4642-4D84-A70C-29B18CBE84A2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605EC3E-98DB-45F9-AF4A-EE343672A134}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4627,17 +4628,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605EC3E-98DB-45F9-AF4A-EE343672A134}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C4F0D79-4642-4D84-A70C-29B18CBE84A2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>